--- a/StructureDefinition-ncpi-participant.xlsx
+++ b/StructureDefinition-ncpi-participant.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-30T19:47:38+00:00</t>
+    <t>2024-08-08T16:40:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-participant.xlsx
+++ b/StructureDefinition-ncpi-participant.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-08T16:40:30+00:00</t>
+    <t>2024-08-08T19:03:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-participant.xlsx
+++ b/StructureDefinition-ncpi-participant.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-08T19:03:14+00:00</t>
+    <t>2024-08-12T19:06:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-participant.xlsx
+++ b/StructureDefinition-ncpi-participant.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-12T19:06:04+00:00</t>
+    <t>2024-08-20T21:48:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-participant.xlsx
+++ b/StructureDefinition-ncpi-participant.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-20T21:48:07+00:00</t>
+    <t>2024-08-22T16:27:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-participant.xlsx
+++ b/StructureDefinition-ncpi-participant.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-22T16:27:20+00:00</t>
+    <t>2024-09-10T18:56:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-participant.xlsx
+++ b/StructureDefinition-ncpi-participant.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-10T18:56:29+00:00</t>
+    <t>2024-09-12T18:14:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-participant.xlsx
+++ b/StructureDefinition-ncpi-participant.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-12T18:14:21+00:00</t>
+    <t>2024-09-13T20:57:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-participant.xlsx
+++ b/StructureDefinition-ncpi-participant.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-13T20:57:31+00:00</t>
+    <t>2024-09-16T16:04:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-participant.xlsx
+++ b/StructureDefinition-ncpi-participant.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-16T16:04:42+00:00</t>
+    <t>2024-09-18T19:34:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-participant.xlsx
+++ b/StructureDefinition-ncpi-participant.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-18T19:34:29+00:00</t>
+    <t>2024-09-25T18:09:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-participant.xlsx
+++ b/StructureDefinition-ncpi-participant.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-25T18:09:20+00:00</t>
+    <t>2024-09-26T15:36:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-participant.xlsx
+++ b/StructureDefinition-ncpi-participant.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T15:36:52+00:00</t>
+    <t>2024-09-26T17:33:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-participant.xlsx
+++ b/StructureDefinition-ncpi-participant.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T17:33:09+00:00</t>
+    <t>2024-09-26T18:25:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-participant.xlsx
+++ b/StructureDefinition-ncpi-participant.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T18:25:51+00:00</t>
+    <t>2024-09-26T19:08:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-participant.xlsx
+++ b/StructureDefinition-ncpi-participant.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T19:08:25+00:00</t>
+    <t>2024-10-07T20:39:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-participant.xlsx
+++ b/StructureDefinition-ncpi-participant.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-07T20:39:38+00:00</t>
+    <t>2024-10-08T12:54:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-participant.xlsx
+++ b/StructureDefinition-ncpi-participant.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-08T12:54:01+00:00</t>
+    <t>2024-10-08T13:48:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-participant.xlsx
+++ b/StructureDefinition-ncpi-participant.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-08T13:48:24+00:00</t>
+    <t>2024-10-28T19:33:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-participant.xlsx
+++ b/StructureDefinition-ncpi-participant.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-28T19:33:15+00:00</t>
+    <t>2024-10-30T18:30:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-participant.xlsx
+++ b/StructureDefinition-ncpi-participant.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-30T18:30:14+00:00</t>
+    <t>2024-11-25T15:36:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-participant.xlsx
+++ b/StructureDefinition-ncpi-participant.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-25T15:36:07+00:00</t>
+    <t>2025-01-06T15:08:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-participant.xlsx
+++ b/StructureDefinition-ncpi-participant.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T15:08:44+00:00</t>
+    <t>2025-01-10T20:53:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-participant.xlsx
+++ b/StructureDefinition-ncpi-participant.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-10T20:53:40+00:00</t>
+    <t>2025-01-13T15:02:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-participant.xlsx
+++ b/StructureDefinition-ncpi-participant.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-13T15:02:43+00:00</t>
+    <t>2025-01-13T16:25:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-participant.xlsx
+++ b/StructureDefinition-ncpi-participant.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-13T16:25:54+00:00</t>
+    <t>2025-01-14T18:54:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-participant.xlsx
+++ b/StructureDefinition-ncpi-participant.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-14T18:54:07+00:00</t>
+    <t>2025-01-27T23:56:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-participant.xlsx
+++ b/StructureDefinition-ncpi-participant.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-27T23:56:01+00:00</t>
+    <t>2025-01-28T00:06:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-participant.xlsx
+++ b/StructureDefinition-ncpi-participant.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-28T00:06:22+00:00</t>
+    <t>2025-02-07T15:45:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-participant.xlsx
+++ b/StructureDefinition-ncpi-participant.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-07T15:45:47+00:00</t>
+    <t>2025-03-11T16:55:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-participant.xlsx
+++ b/StructureDefinition-ncpi-participant.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-11T16:55:01+00:00</t>
+    <t>2025-03-24T15:08:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-participant.xlsx
+++ b/StructureDefinition-ncpi-participant.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-24T15:08:47+00:00</t>
+    <t>2025-05-11T16:39:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -473,7 +473,7 @@
     <t>A code classifying the person's sex assigned at birth  as specified by the [Office of the National Coordinator for Health IT (ONC)](https://www.healthit.gov/newsroom/about-onc).</t>
   </si>
   <si>
-    <t>The codes required are intended to present birth sex (i.e., the sex recorded on the patient’s birth certificate) and not gender identity or reassigned sex.</t>
+    <t>The codes required are intended to present birth sex (i.e., the sex recorded on the patient's birth certificate) and not gender identity or reassigned sex.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -1610,17 +1610,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="39.47265625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="39.47265625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="21.8359375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="33.83984375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="33.83984375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="18.71875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="96.046875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="82.34375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1629,27 +1629,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="80.89453125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="51.921875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="69.35546875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="44.51171875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="29.88671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="156.828125" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="40.8125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="39.37890625" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="40.0703125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="134.453125" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="34.98828125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="33.76171875" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="34.35546875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/StructureDefinition-ncpi-participant.xlsx
+++ b/StructureDefinition-ncpi-participant.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-11T16:39:55+00:00</t>
+    <t>2025-05-16T18:22:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-participant.xlsx
+++ b/StructureDefinition-ncpi-participant.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-16T18:22:27+00:00</t>
+    <t>2025-05-21T14:15:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-participant.xlsx
+++ b/StructureDefinition-ncpi-participant.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-21T14:15:46+00:00</t>
+    <t>2025-05-21T14:22:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-participant.xlsx
+++ b/StructureDefinition-ncpi-participant.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1978" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1978" uniqueCount="403">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-21T14:22:51+00:00</t>
+    <t>2025-06-13T15:45:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -93,7 +93,7 @@
     <t>FHIR Version</t>
   </si>
   <si>
-    <t>4.3.0</t>
+    <t>4.0.1</t>
   </si>
   <si>
     <t>Kind</t>
@@ -270,16 +270,13 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where(((id.exists() and ('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url)))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(uri) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Patient[classCode=PAT]</t>
   </si>
   <si>
     <t>ClinicalDocument.recordTarget.patientRole</t>
-  </si>
-  <si>
-    <t>administrative.individual</t>
   </si>
   <si>
     <t>Patient.id</t>
@@ -365,7 +362,7 @@
     <t>preferred</t>
   </si>
   <si>
-    <t>IETF language tag</t>
+    <t>A human language.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/languages</t>
@@ -423,10 +420,6 @@
     <t>DomainResource.contained</t>
   </si>
   <si>
-    <t xml:space="preserve">dom-r4b:Containing new R4B resources within R4 resources may cause interoperability issues if instances are shared with R4 systems {($this is Citation or $this is Evidence or $this is EvidenceReport or $this is EvidenceVariable or $this is MedicinalProductDefinition or $this is PackagedProductDefinition or $this is AdministrableProductDefinition or $this is Ingredient or $this is ClinicalUseDefinition or $this is RegulatedAuthorization or $this is SubstanceDefinition or $this is SubscriptionStatus or $this is SubscriptionTopic) implies (%resource is Citation or %resource is Evidence or %resource is EvidenceReport or %resource is EvidenceVariable or %resource is MedicinalProductDefinition or %resource is PackagedProductDefinition or %resource is AdministrableProductDefinition or %resource is Ingredient or %resource is ClinicalUseDefinition or %resource is RegulatedAuthorization or %resource is SubstanceDefinition or %resource is SubscriptionStatus or %resource is SubscriptionTopic)}
-</t>
-  </si>
-  <si>
     <t>N/A</t>
   </si>
   <si>
@@ -463,7 +456,7 @@
     <t>us-core-birth-sex</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/core/StructureDefinition/us-core-birthsex}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/core/StructureDefinition/us-core-birthsex|6.1.0}
 </t>
   </si>
   <si>
@@ -489,7 +482,7 @@
     <t>us-core-race</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/core/StructureDefinition/us-core-race}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/core/StructureDefinition/us-core-race|6.1.0}
 </t>
   </si>
   <si>
@@ -510,7 +503,7 @@
     <t>us-core-ethnicity</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/core/StructureDefinition/us-core-ethnicity}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/core/StructureDefinition/us-core-ethnicity|6.1.0}
 </t>
   </si>
   <si>
@@ -536,10 +529,6 @@
     <t>Code describing the population (CDC)</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children unless an empty Parameters resource {hasValue() or (children().count() &gt; id.count()) or $this is Parameters}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
     <t>Patient.extension:dob-method</t>
   </si>
   <si>
@@ -589,7 +578,7 @@
     <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4B/extensibility.html#modifierExtension).</t>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -734,7 +723,7 @@
     <t>The gender of a person used for administrative purposes.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/administrative-gender|4.3.0</t>
+    <t>http://hl7.org/fhir/ValueSet/administrative-gender|4.0.1</t>
   </si>
   <si>
     <t>.patient.administrativeGenderCode</t>
@@ -933,7 +922,7 @@
     <t>Need to track people you can contact about the patient.</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children unless an empty Parameters resource {hasValue() or (children().count() &gt; id.count()) or $this is Parameters}
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 pat-1:SHALL at least contain a contact's details or a reference to an organization {name.exists() or telecom.exists() or address.exists() or organization.exists()}</t>
   </si>
   <si>
@@ -1121,10 +1110,6 @@
   </si>
   <si>
     <t>If a patient does not speak the local language, interpreters may be required, so languages spoken and proficiency are important things to keep track of both for patient and other persons of interest.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children unless an empty Parameters resource {hasValue() or (children().count() &gt; id.count()) or $this is Parameters}
-</t>
   </si>
   <si>
     <t>LanguageCommunication</t>
@@ -1293,7 +1278,7 @@
     <t>The type of link between this patient resource and another patient resource.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/link-type|4.3.0</t>
+    <t>http://hl7.org/fhir/ValueSet/link-type|4.0.1</t>
   </si>
   <si>
     <t>typeCode</t>
@@ -1883,7 +1868,7 @@
         <v>86</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="AN2" t="s" s="2">
         <v>20</v>
@@ -1894,10 +1879,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1905,31 +1890,31 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="M3" t="s" s="2">
+      <c r="N3" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="N3" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -1979,13 +1964,13 @@
         <v>20</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>20</v>
@@ -2011,10 +1996,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2025,25 +2010,25 @@
         <v>79</v>
       </c>
       <c r="G4" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I4" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J4" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="H4" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J4" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="K4" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="L4" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="L4" t="s" s="2">
+      <c r="M4" t="s" s="2">
         <v>98</v>
-      </c>
-      <c r="M4" t="s" s="2">
-        <v>99</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2094,19 +2079,19 @@
         <v>20</v>
       </c>
       <c r="AF4" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI4" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ4" t="s" s="2">
         <v>100</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ4" t="s" s="2">
-        <v>101</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>20</v>
@@ -2126,10 +2111,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2140,28 +2125,28 @@
         <v>79</v>
       </c>
       <c r="G5" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H5" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I5" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="H5" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I5" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J5" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L5" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="M5" t="s" s="2">
+      <c r="N5" t="s" s="2">
         <v>105</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>106</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2211,19 +2196,19 @@
         <v>20</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>20</v>
@@ -2243,10 +2228,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2257,7 +2242,7 @@
         <v>79</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>20</v>
@@ -2269,16 +2254,16 @@
         <v>20</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L6" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="M6" t="s" s="2">
+      <c r="N6" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>112</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2304,43 +2289,43 @@
         <v>20</v>
       </c>
       <c r="X6" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="Y6" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="Z6" t="s" s="2">
+      <c r="AA6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF6" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="AA6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF6" t="s" s="2">
-        <v>116</v>
-      </c>
       <c r="AG6" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>20</v>
@@ -2360,21 +2345,21 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>20</v>
@@ -2386,16 +2371,16 @@
         <v>20</v>
       </c>
       <c r="K7" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="L7" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="M7" t="s" s="2">
+      <c r="N7" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>122</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2445,22 +2430,22 @@
         <v>20</v>
       </c>
       <c r="AF7" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK7" t="s" s="2">
         <v>123</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>124</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>20</v>
@@ -2477,14 +2462,14 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2503,16 +2488,16 @@
         <v>20</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="L8" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="M8" t="s" s="2">
+      <c r="N8" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2562,7 +2547,7 @@
         <v>20</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>79</v>
@@ -2574,10 +2559,10 @@
         <v>20</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>132</v>
+        <v>20</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>20</v>
@@ -2594,10 +2579,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -2620,13 +2605,13 @@
         <v>20</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L9" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="M9" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="L9" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>137</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -2665,17 +2650,17 @@
         <v>20</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>79</v>
@@ -2687,7 +2672,7 @@
         <v>20</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>20</v>
@@ -2707,13 +2692,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>20</v>
@@ -2723,7 +2708,7 @@
         <v>79</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>20</v>
@@ -2735,16 +2720,16 @@
         <v>20</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="L10" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="M10" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="N10" t="s" s="2">
         <v>145</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>147</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
@@ -2794,7 +2779,7 @@
         <v>20</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>79</v>
@@ -2803,13 +2788,13 @@
         <v>80</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>20</v>
@@ -2826,13 +2811,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>20</v>
@@ -2842,7 +2827,7 @@
         <v>79</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>20</v>
@@ -2854,13 +2839,13 @@
         <v>20</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="L11" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="M11" t="s" s="2">
         <v>152</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>154</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -2911,7 +2896,7 @@
         <v>20</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>79</v>
@@ -2920,10 +2905,10 @@
         <v>80</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>20</v>
@@ -2943,13 +2928,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D12" t="s" s="2">
         <v>20</v>
@@ -2959,7 +2944,7 @@
         <v>79</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>20</v>
@@ -2971,13 +2956,13 @@
         <v>20</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="L12" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="M12" t="s" s="2">
         <v>157</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>159</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -3028,7 +3013,7 @@
         <v>20</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>79</v>
@@ -3037,10 +3022,10 @@
         <v>80</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>20</v>
@@ -3060,13 +3045,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D13" t="s" s="2">
         <v>20</v>
@@ -3076,7 +3061,7 @@
         <v>79</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>20</v>
@@ -3088,13 +3073,13 @@
         <v>20</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="M13" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>164</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -3145,7 +3130,7 @@
         <v>20</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>79</v>
@@ -3154,10 +3139,10 @@
         <v>80</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>165</v>
+        <v>139</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>20</v>
@@ -3177,13 +3162,13 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D14" t="s" s="2">
         <v>20</v>
@@ -3193,7 +3178,7 @@
         <v>79</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>20</v>
@@ -3205,13 +3190,13 @@
         <v>20</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -3262,7 +3247,7 @@
         <v>20</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>79</v>
@@ -3271,10 +3256,10 @@
         <v>80</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>165</v>
+        <v>139</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>20</v>
@@ -3294,13 +3279,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>20</v>
@@ -3310,7 +3295,7 @@
         <v>79</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>20</v>
@@ -3322,13 +3307,13 @@
         <v>20</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -3379,7 +3364,7 @@
         <v>20</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>79</v>
@@ -3388,10 +3373,10 @@
         <v>80</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>165</v>
+        <v>139</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>20</v>
@@ -3411,14 +3396,14 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3431,25 +3416,25 @@
         <v>20</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J16" t="s" s="2">
         <v>20</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L16" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="O16" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>181</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>20</v>
@@ -3498,7 +3483,7 @@
         <v>20</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>79</v>
@@ -3510,10 +3495,10 @@
         <v>20</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>20</v>
@@ -3530,10 +3515,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3553,20 +3538,20 @@
         <v>20</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>20</v>
@@ -3615,7 +3600,7 @@
         <v>20</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>79</v>
@@ -3627,19 +3612,19 @@
         <v>20</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK17" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="AL17" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AM17" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AN17" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="AL17" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="AM17" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="AN17" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>20</v>
@@ -3647,10 +3632,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3661,103 +3646,103 @@
         <v>79</v>
       </c>
       <c r="G18" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I18" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="H18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I18" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J18" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="L18" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="M18" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="N18" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="O18" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="P18" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q18" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="N18" t="s" s="2">
+      <c r="R18" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S18" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T18" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U18" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V18" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W18" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X18" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y18" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z18" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA18" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE18" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF18" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK18" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="O18" t="s" s="2">
+      <c r="AL18" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="P18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q18" t="s" s="2">
+      <c r="AM18" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="R18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="S18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF18" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="AG18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK18" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="AL18" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="AM18" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>20</v>
@@ -3768,10 +3753,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3791,22 +3776,22 @@
         <v>20</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="L19" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="N19" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="O19" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>20</v>
@@ -3855,7 +3840,7 @@
         <v>20</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>79</v>
@@ -3867,19 +3852,19 @@
         <v>20</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>20</v>
@@ -3887,10 +3872,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3910,22 +3895,22 @@
         <v>20</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="L20" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="N20" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="O20" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>20</v>
@@ -3974,7 +3959,7 @@
         <v>20</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
@@ -3986,19 +3971,19 @@
         <v>20</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>20</v>
@@ -4006,10 +3991,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4020,31 +4005,31 @@
         <v>79</v>
       </c>
       <c r="G21" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H21" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I21" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J21" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="H21" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I21" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J21" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="K21" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L21" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="O21" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>20</v>
@@ -4069,55 +4054,55 @@
         <v>20</v>
       </c>
       <c r="X21" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="Y21" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="Z21" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="AA21" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE21" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF21" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK21" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="AL21" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="Y21" t="s" s="2">
+      <c r="AM21" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN21" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="Z21" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="AA21" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC21" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD21" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE21" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF21" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="AG21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK21" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="AL21" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN21" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>20</v>
@@ -4125,10 +4110,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4139,31 +4124,31 @@
         <v>79</v>
       </c>
       <c r="G22" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H22" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I22" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J22" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="H22" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I22" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J22" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="K22" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="L22" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="N22" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="O22" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>235</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>20</v>
@@ -4212,42 +4197,42 @@
         <v>20</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK22" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="AL22" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="AM22" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN22" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="AO22" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="AL22" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="AO22" t="s" s="2">
-        <v>239</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4258,31 +4243,31 @@
         <v>79</v>
       </c>
       <c r="G23" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H23" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I23" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="H23" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I23" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J23" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="N23" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="O23" t="s" s="2">
         <v>242</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>245</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>20</v>
@@ -4331,31 +4316,31 @@
         <v>20</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>20</v>
@@ -4363,10 +4348,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4386,22 +4371,22 @@
         <v>20</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="L24" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="N24" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="O24" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>253</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>20</v>
@@ -4450,7 +4435,7 @@
         <v>20</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
@@ -4462,19 +4447,19 @@
         <v>20</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>20</v>
@@ -4482,10 +4467,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4496,7 +4481,7 @@
         <v>79</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>20</v>
@@ -4508,17 +4493,17 @@
         <v>20</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>20</v>
@@ -4543,55 +4528,55 @@
         <v>20</v>
       </c>
       <c r="X25" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="Y25" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="Z25" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="AA25" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE25" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF25" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK25" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="Y25" t="s" s="2">
+      <c r="AL25" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="Z25" t="s" s="2">
+      <c r="AM25" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN25" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="AA25" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD25" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE25" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF25" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="AG25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH25" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI25" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ25" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK25" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="AL25" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="AM25" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>267</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>20</v>
@@ -4599,10 +4584,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4613,7 +4598,7 @@
         <v>79</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>20</v>
@@ -4625,19 +4610,19 @@
         <v>20</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="L26" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="N26" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="O26" t="s" s="2">
         <v>270</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>273</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>20</v>
@@ -4686,31 +4671,31 @@
         <v>20</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>20</v>
@@ -4718,10 +4703,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4744,19 +4729,19 @@
         <v>20</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="L27" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="N27" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="O27" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>281</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>20</v>
@@ -4805,7 +4790,7 @@
         <v>20</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
@@ -4817,19 +4802,19 @@
         <v>20</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>20</v>
@@ -4837,10 +4822,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4863,19 +4848,19 @@
         <v>20</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="L28" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="N28" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="O28" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>289</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>20</v>
@@ -4924,7 +4909,7 @@
         <v>20</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
@@ -4936,13 +4921,13 @@
         <v>20</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>20</v>
@@ -4956,10 +4941,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4970,7 +4955,7 @@
         <v>79</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>20</v>
@@ -4982,13 +4967,13 @@
         <v>20</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -5039,13 +5024,13 @@
         <v>20</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>20</v>
@@ -5054,7 +5039,7 @@
         <v>20</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>20</v>
@@ -5071,14 +5056,14 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -5097,16 +5082,16 @@
         <v>20</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5156,7 +5141,7 @@
         <v>20</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
@@ -5168,10 +5153,10 @@
         <v>20</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>20</v>
@@ -5188,14 +5173,14 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -5208,25 +5193,25 @@
         <v>20</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>20</v>
@@ -5275,7 +5260,7 @@
         <v>20</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
@@ -5287,10 +5272,10 @@
         <v>20</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>20</v>
@@ -5307,10 +5292,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5333,17 +5318,17 @@
         <v>20</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>20</v>
@@ -5368,13 +5353,13 @@
         <v>20</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>20</v>
@@ -5392,7 +5377,7 @@
         <v>20</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
@@ -5404,19 +5389,19 @@
         <v>20</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>20</v>
@@ -5424,10 +5409,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5438,7 +5423,7 @@
         <v>79</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>20</v>
@@ -5450,17 +5435,17 @@
         <v>20</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>20</v>
@@ -5509,31 +5494,31 @@
         <v>20</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>20</v>
@@ -5541,10 +5526,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5567,19 +5552,19 @@
         <v>20</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>20</v>
@@ -5628,7 +5613,7 @@
         <v>20</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
@@ -5640,19 +5625,19 @@
         <v>20</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>20</v>
@@ -5660,10 +5645,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5674,7 +5659,7 @@
         <v>79</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>20</v>
@@ -5686,17 +5671,17 @@
         <v>20</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>20</v>
@@ -5745,31 +5730,31 @@
         <v>20</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>20</v>
@@ -5777,10 +5762,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5791,7 +5776,7 @@
         <v>79</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>20</v>
@@ -5803,17 +5788,17 @@
         <v>20</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>20</v>
@@ -5838,13 +5823,13 @@
         <v>20</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>20</v>
@@ -5862,31 +5847,31 @@
         <v>20</v>
       </c>
       <c r="AF36" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="AL36" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="AM36" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN36" t="s" s="2">
         <v>329</v>
-      </c>
-      <c r="AG36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH36" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI36" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ36" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK36" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="AL36" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN36" t="s" s="2">
-        <v>332</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>20</v>
@@ -5894,10 +5879,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5908,7 +5893,7 @@
         <v>79</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>20</v>
@@ -5920,17 +5905,17 @@
         <v>20</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>20</v>
@@ -5979,31 +5964,31 @@
         <v>20</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>20</v>
@@ -6011,10 +5996,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6025,7 +6010,7 @@
         <v>79</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>20</v>
@@ -6037,13 +6022,13 @@
         <v>20</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6094,25 +6079,25 @@
         <v>20</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>20</v>
@@ -6126,10 +6111,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6152,19 +6137,19 @@
         <v>20</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="L39" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="O39" t="s" s="2">
         <v>347</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>350</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>20</v>
@@ -6213,7 +6198,7 @@
         <v>20</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
@@ -6225,13 +6210,13 @@
         <v>20</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>351</v>
+        <v>100</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>20</v>
@@ -6245,10 +6230,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6259,7 +6244,7 @@
         <v>79</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>20</v>
@@ -6271,13 +6256,13 @@
         <v>20</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6328,13 +6313,13 @@
         <v>20</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>20</v>
@@ -6343,7 +6328,7 @@
         <v>20</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>20</v>
@@ -6360,14 +6345,14 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6386,16 +6371,16 @@
         <v>20</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6445,7 +6430,7 @@
         <v>20</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
@@ -6457,10 +6442,10 @@
         <v>20</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>20</v>
@@ -6477,14 +6462,14 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -6497,25 +6482,25 @@
         <v>20</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>20</v>
@@ -6564,7 +6549,7 @@
         <v>20</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
@@ -6576,10 +6561,10 @@
         <v>20</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>20</v>
@@ -6596,10 +6581,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6607,10 +6592,10 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>20</v>
@@ -6622,19 +6607,19 @@
         <v>20</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>20</v>
@@ -6659,14 +6644,14 @@
         <v>20</v>
       </c>
       <c r="X43" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="Y43" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="Y43" t="s" s="2">
+      <c r="Z43" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="Z43" t="s" s="2">
-        <v>115</v>
-      </c>
       <c r="AA43" t="s" s="2">
         <v>20</v>
       </c>
@@ -6683,31 +6668,31 @@
         <v>20</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>20</v>
@@ -6715,10 +6700,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6729,7 +6714,7 @@
         <v>79</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>20</v>
@@ -6741,19 +6726,19 @@
         <v>20</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>20</v>
@@ -6802,31 +6787,31 @@
         <v>20</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>20</v>
@@ -6834,14 +6819,14 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -6860,16 +6845,16 @@
         <v>20</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -6919,7 +6904,7 @@
         <v>20</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
@@ -6931,19 +6916,19 @@
         <v>20</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>20</v>
@@ -6951,10 +6936,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6965,31 +6950,31 @@
         <v>79</v>
       </c>
       <c r="G46" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I46" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J46" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="H46" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I46" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J46" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="K46" t="s" s="2">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>20</v>
@@ -7038,25 +7023,25 @@
         <v>20</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>20</v>
@@ -7070,10 +7055,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7090,25 +7075,25 @@
         <v>20</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>20</v>
@@ -7157,7 +7142,7 @@
         <v>20</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
@@ -7169,13 +7154,13 @@
         <v>20</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>351</v>
+        <v>100</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>20</v>
@@ -7189,10 +7174,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7203,7 +7188,7 @@
         <v>79</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>20</v>
@@ -7215,13 +7200,13 @@
         <v>20</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7272,13 +7257,13 @@
         <v>20</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>20</v>
@@ -7287,7 +7272,7 @@
         <v>20</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>20</v>
@@ -7304,14 +7289,14 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -7330,16 +7315,16 @@
         <v>20</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7389,7 +7374,7 @@
         <v>20</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
@@ -7401,10 +7386,10 @@
         <v>20</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>20</v>
@@ -7421,14 +7406,14 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7441,25 +7426,25 @@
         <v>20</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>20</v>
@@ -7508,7 +7493,7 @@
         <v>20</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
@@ -7520,10 +7505,10 @@
         <v>20</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>20</v>
@@ -7540,10 +7525,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7551,31 +7536,31 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J51" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G51" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H51" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I51" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J51" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="K51" t="s" s="2">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -7625,31 +7610,31 @@
         <v>20</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>20</v>
@@ -7657,10 +7642,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7668,28 +7653,28 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J52" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G52" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H52" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I52" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J52" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="K52" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7716,13 +7701,13 @@
         <v>20</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>20</v>
@@ -7740,25 +7725,25 @@
         <v>20</v>
       </c>
       <c r="AF52" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK52" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="AG52" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH52" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI52" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ52" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK52" t="s" s="2">
-        <v>406</v>
-      </c>
       <c r="AL52" t="s" s="2">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>20</v>

--- a/StructureDefinition-ncpi-participant.xlsx
+++ b/StructureDefinition-ncpi-participant.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-13T15:45:04+00:00</t>
+    <t>2025-06-25T19:44:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-participant.xlsx
+++ b/StructureDefinition-ncpi-participant.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-25T19:44:14+00:00</t>
+    <t>2025-06-27T14:40:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1890,7 +1890,7 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G3" t="s" s="2">
         <v>88</v>

--- a/StructureDefinition-ncpi-participant.xlsx
+++ b/StructureDefinition-ncpi-participant.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-27T14:40:47+00:00</t>
+    <t>2025-07-21T16:00:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-participant.xlsx
+++ b/StructureDefinition-ncpi-participant.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-21T16:00:02+00:00</t>
+    <t>2025-07-21T16:06:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -450,10 +450,10 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>Patient.extension:us-core-birth-sex</t>
-  </si>
-  <si>
-    <t>us-core-birth-sex</t>
+    <t>Patient.extension:usCoreBirthSex</t>
+  </si>
+  <si>
+    <t>usCoreBirthSex</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://hl7.org/fhir/us/core/StructureDefinition/us-core-birthsex|6.1.0}
@@ -476,10 +476,10 @@
     <t>player[classCode=PSN|ANM and determinerCode=INSTANCE]/administrativeGender</t>
   </si>
   <si>
-    <t>Patient.extension:us-core-race</t>
-  </si>
-  <si>
-    <t>us-core-race</t>
+    <t>Patient.extension:usCoreRace</t>
+  </si>
+  <si>
+    <t>usCoreRace</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://hl7.org/fhir/us/core/StructureDefinition/us-core-race|6.1.0}
@@ -497,10 +497,10 @@
    - White.</t>
   </si>
   <si>
-    <t>Patient.extension:us-core-ethnicity</t>
-  </si>
-  <si>
-    <t>us-core-ethnicity</t>
+    <t>Patient.extension:usCoreEthnicity</t>
+  </si>
+  <si>
+    <t>usCoreEthnicity</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://hl7.org/fhir/us/core/StructureDefinition/us-core-ethnicity|6.1.0}
@@ -529,10 +529,10 @@
     <t>Code describing the population (CDC)</t>
   </si>
   <si>
-    <t>Patient.extension:dob-method</t>
-  </si>
-  <si>
-    <t>dob-method</t>
+    <t>Patient.extension:dobMethod</t>
+  </si>
+  <si>
+    <t>dobMethod</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {https://nih-ncpi.github.io/ncpi-fhir-ig-2/StructureDefinition/research-date-of-birth-method}
@@ -545,10 +545,10 @@
     <t>Code indicating method of the DOB construction</t>
   </si>
   <si>
-    <t>Patient.extension:age-at-last-vital-status</t>
-  </si>
-  <si>
-    <t>age-at-last-vital-status</t>
+    <t>Patient.extension:ageAtLastVitalStatus</t>
+  </si>
+  <si>
+    <t>ageAtLastVitalStatus</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {https://nih-ncpi.github.io/ncpi-fhir-ig-2/StructureDefinition/research-age-at-last-vital-status}
@@ -1597,7 +1597,7 @@
   <cols>
     <col min="1" max="1" width="33.83984375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="33.83984375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="18.71875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="17.32421875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-ncpi-participant.xlsx
+++ b/StructureDefinition-ncpi-participant.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-21T16:06:27+00:00</t>
+    <t>2025-07-22T19:44:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-participant.xlsx
+++ b/StructureDefinition-ncpi-participant.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-22T19:44:39+00:00</t>
+    <t>2025-08-11T13:46:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-participant.xlsx
+++ b/StructureDefinition-ncpi-participant.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-11T13:46:00+00:00</t>
+    <t>2025-08-11T15:03:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-participant.xlsx
+++ b/StructureDefinition-ncpi-participant.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-11T15:03:48+00:00</t>
+    <t>2025-08-12T16:35:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-participant.xlsx
+++ b/StructureDefinition-ncpi-participant.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T16:35:35+00:00</t>
+    <t>2025-08-12T16:41:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-participant.xlsx
+++ b/StructureDefinition-ncpi-participant.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T16:41:46+00:00</t>
+    <t>2025-08-12T16:58:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-participant.xlsx
+++ b/StructureDefinition-ncpi-participant.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T16:58:49+00:00</t>
+    <t>2025-08-12T17:45:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-participant.xlsx
+++ b/StructureDefinition-ncpi-participant.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T17:45:57+00:00</t>
+    <t>2025-08-12T18:02:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-participant.xlsx
+++ b/StructureDefinition-ncpi-participant.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T18:02:45+00:00</t>
+    <t>2025-08-26T23:53:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
